--- a/Dataset/YACM-Dataset.xlsx
+++ b/Dataset/YACM-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\UA\BD\Project\BD-YACM\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013B0525-CF09-409F-842C-A46EB44DC4A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98328C04-0C5D-4E09-AE91-BA0E65B4A4D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67B48889-A8C9-4163-B416-5FF4F8CF7936}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{67B48889-A8C9-4163-B416-5FF4F8CF7936}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="703">
   <si>
     <t>Nicholas Mason</t>
   </si>
@@ -1423,21 +1423,12 @@
     <t>Frederick Alexander</t>
   </si>
   <si>
-    <t>f.alexander@randatmail.com</t>
-  </si>
-  <si>
     <t>ldvu4p3yqc</t>
   </si>
   <si>
-    <t>Daisy Walker</t>
-  </si>
-  <si>
     <t>d.walker@randatmail.com</t>
   </si>
   <si>
-    <t>ofhpbgvnvk</t>
-  </si>
-  <si>
     <t>Miley Chapman</t>
   </si>
   <si>
@@ -2147,13 +2138,19 @@
   </si>
   <si>
     <t>3.5 hours</t>
+  </si>
+  <si>
+    <t>user@ua.pt</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2177,6 +2174,20 @@
       <b/>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2224,13 +2235,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2241,13 +2253,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{DA18378A-FF14-4F8D-B724-EDA2B374325E}"/>
     <cellStyle name="Note 2" xfId="3" xr:uid="{8E1A7B09-CDFC-4F2A-8E02-A1CFC01777D2}"/>
@@ -2291,12 +2306,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27FD5448-2753-4DF6-AD03-F98BFE6DD830}" name="Table2" displayName="Table2" ref="B3:E213" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B3:E213" xr:uid="{594EE40F-79AE-49D9-ABC9-F98FA556C81E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27FD5448-2753-4DF6-AD03-F98BFE6DD830}" name="Table2" displayName="Table2" ref="B3:E214" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B3:E214" xr:uid="{594EE40F-79AE-49D9-ABC9-F98FA556C81E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{260D0172-3201-4CBF-9779-C4A411219C32}" name="id" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{3BB65DAF-1E5E-46E2-A1AA-46F4468663BE}" name="email" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{8B65BC17-DE15-4EBA-AEA8-CBE78940F632}" name="name" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{2F1E232F-AE9A-433F-852F-12EB6842D1B4}" name="email" dataCellStyle="Normal 2"/>
     <tableColumn id="4" xr3:uid="{E65E9061-7451-45C3-8880-E6F112A9DA12}" name="password" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2630,16 +2645,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDA4B60-C26E-42E9-ACDC-FE0EF6B4589A}">
-  <dimension ref="B2:I213"/>
+  <dimension ref="B2:I214"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="68" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView topLeftCell="A147" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
@@ -2647,44 +2662,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>613</v>
+      <c r="H2" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -2692,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -2715,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
@@ -2738,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -2761,10 +2776,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -2784,10 +2799,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -2807,10 +2822,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -2830,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -2853,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -2876,10 +2891,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -2899,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -2922,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -2942,10 +2957,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -2962,10 +2977,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
@@ -2982,10 +2997,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
@@ -3002,10 +3017,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
@@ -3022,10 +3037,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -3039,10 +3054,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -3056,10 +3071,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -3073,10 +3088,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -3090,10 +3105,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -3107,10 +3122,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -3124,10 +3139,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
@@ -3141,10 +3156,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>68</v>
@@ -3158,10 +3173,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>71</v>
@@ -3175,10 +3190,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>74</v>
@@ -3192,10 +3207,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>77</v>
@@ -3209,10 +3224,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>80</v>
@@ -3226,10 +3241,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>83</v>
@@ -3243,10 +3258,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>86</v>
@@ -3260,10 +3275,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>89</v>
@@ -3277,10 +3292,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>92</v>
@@ -3294,10 +3309,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>95</v>
@@ -3311,10 +3326,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>98</v>
@@ -3328,10 +3343,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>101</v>
@@ -3345,10 +3360,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>104</v>
@@ -3362,10 +3377,10 @@
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>107</v>
@@ -3379,10 +3394,10 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>110</v>
@@ -3396,10 +3411,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>113</v>
@@ -3413,10 +3428,10 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>116</v>
@@ -3430,10 +3445,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>119</v>
@@ -3447,10 +3462,10 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>122</v>
@@ -3464,10 +3479,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>125</v>
@@ -3481,10 +3496,10 @@
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>128</v>
@@ -3498,10 +3513,10 @@
         <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>131</v>
@@ -3515,10 +3530,10 @@
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>134</v>
@@ -3532,10 +3547,10 @@
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>137</v>
@@ -3549,10 +3564,10 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>140</v>
@@ -3566,10 +3581,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>143</v>
@@ -3583,10 +3598,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>146</v>
@@ -3600,10 +3615,10 @@
         <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>149</v>
@@ -3617,10 +3632,10 @@
         <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>152</v>
@@ -3634,10 +3649,10 @@
         <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>155</v>
@@ -3651,10 +3666,10 @@
         <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>158</v>
@@ -3668,10 +3683,10 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>161</v>
@@ -3685,10 +3700,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>163</v>
@@ -3702,10 +3717,10 @@
         <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>166</v>
@@ -3719,10 +3734,10 @@
         <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>169</v>
@@ -3736,10 +3751,10 @@
         <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>172</v>
@@ -3753,10 +3768,10 @@
         <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>175</v>
@@ -3770,10 +3785,10 @@
         <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>178</v>
@@ -3787,10 +3802,10 @@
         <v>61</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>181</v>
@@ -3804,10 +3819,10 @@
         <v>62</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>184</v>
@@ -3821,10 +3836,10 @@
         <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>187</v>
@@ -3838,10 +3853,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>190</v>
@@ -3855,10 +3870,10 @@
         <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>193</v>
@@ -3872,10 +3887,10 @@
         <v>66</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>196</v>
@@ -3889,10 +3904,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>199</v>
@@ -3906,10 +3921,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>202</v>
@@ -3923,10 +3938,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>205</v>
@@ -3940,10 +3955,10 @@
         <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>208</v>
@@ -3957,10 +3972,10 @@
         <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>211</v>
@@ -3974,10 +3989,10 @@
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>214</v>
@@ -3991,10 +4006,10 @@
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>217</v>
@@ -4008,10 +4023,10 @@
         <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>220</v>
@@ -4025,10 +4040,10 @@
         <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>223</v>
@@ -4042,10 +4057,10 @@
         <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>226</v>
@@ -4059,10 +4074,10 @@
         <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>229</v>
@@ -4076,10 +4091,10 @@
         <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>232</v>
@@ -4093,10 +4108,10 @@
         <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>235</v>
@@ -4110,10 +4125,10 @@
         <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>237</v>
@@ -4127,10 +4142,10 @@
         <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>240</v>
@@ -4144,10 +4159,10 @@
         <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>243</v>
@@ -4161,10 +4176,10 @@
         <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>246</v>
@@ -4178,10 +4193,10 @@
         <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>249</v>
@@ -4195,10 +4210,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>252</v>
@@ -4212,10 +4227,10 @@
         <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>255</v>
@@ -4229,10 +4244,10 @@
         <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>258</v>
@@ -4246,10 +4261,10 @@
         <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>261</v>
@@ -4263,10 +4278,10 @@
         <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>264</v>
@@ -4280,10 +4295,10 @@
         <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>267</v>
@@ -4297,10 +4312,10 @@
         <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>270</v>
@@ -4314,10 +4329,10 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>273</v>
@@ -4331,10 +4346,10 @@
         <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>276</v>
@@ -4348,10 +4363,10 @@
         <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>279</v>
@@ -4365,10 +4380,10 @@
         <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>282</v>
@@ -4382,10 +4397,10 @@
         <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>285</v>
@@ -4399,10 +4414,10 @@
         <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>288</v>
@@ -4416,10 +4431,10 @@
         <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>291</v>
@@ -4433,10 +4448,10 @@
         <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>293</v>
@@ -4450,10 +4465,10 @@
         <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>296</v>
@@ -4467,10 +4482,10 @@
         <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>299</v>
@@ -4484,10 +4499,10 @@
         <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>302</v>
@@ -4501,10 +4516,10 @@
         <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>305</v>
@@ -4518,10 +4533,10 @@
         <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>308</v>
@@ -4535,10 +4550,10 @@
         <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>311</v>
@@ -4552,10 +4567,10 @@
         <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>313</v>
@@ -4569,10 +4584,10 @@
         <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>316</v>
@@ -4586,10 +4601,10 @@
         <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>318</v>
@@ -4603,10 +4618,10 @@
         <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>321</v>
@@ -4620,10 +4635,10 @@
         <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>324</v>
@@ -4637,10 +4652,10 @@
         <v>111</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>327</v>
@@ -4654,10 +4669,10 @@
         <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>330</v>
@@ -4671,10 +4686,10 @@
         <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>333</v>
@@ -4688,10 +4703,10 @@
         <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>336</v>
@@ -4705,10 +4720,10 @@
         <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>339</v>
@@ -4722,10 +4737,10 @@
         <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>342</v>
@@ -4739,10 +4754,10 @@
         <v>117</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>345</v>
@@ -4756,10 +4771,10 @@
         <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>348</v>
@@ -4773,10 +4788,10 @@
         <v>119</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>351</v>
@@ -4790,10 +4805,10 @@
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>354</v>
@@ -4807,10 +4822,10 @@
         <v>121</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>357</v>
@@ -4824,10 +4839,10 @@
         <v>122</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>360</v>
@@ -4841,10 +4856,10 @@
         <v>123</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>363</v>
@@ -4858,10 +4873,10 @@
         <v>124</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>365</v>
@@ -4875,10 +4890,10 @@
         <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>368</v>
@@ -4892,10 +4907,10 @@
         <v>126</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>370</v>
@@ -4909,10 +4924,10 @@
         <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>373</v>
@@ -4926,10 +4941,10 @@
         <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>376</v>
@@ -4943,10 +4958,10 @@
         <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>379</v>
@@ -4960,10 +4975,10 @@
         <v>130</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>382</v>
@@ -4977,10 +4992,10 @@
         <v>131</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>384</v>
@@ -4994,10 +5009,10 @@
         <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>387</v>
@@ -5011,10 +5026,10 @@
         <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>390</v>
@@ -5028,10 +5043,10 @@
         <v>134</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>393</v>
@@ -5045,10 +5060,10 @@
         <v>135</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>396</v>
@@ -5062,10 +5077,10 @@
         <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>399</v>
@@ -5079,10 +5094,10 @@
         <v>137</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>402</v>
@@ -5096,10 +5111,10 @@
         <v>138</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>405</v>
@@ -5113,10 +5128,10 @@
         <v>139</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>408</v>
@@ -5130,10 +5145,10 @@
         <v>140</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>410</v>
@@ -5147,10 +5162,10 @@
         <v>141</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>413</v>
@@ -5164,10 +5179,10 @@
         <v>142</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>415</v>
@@ -5181,10 +5196,10 @@
         <v>143</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>418</v>
@@ -5198,10 +5213,10 @@
         <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>421</v>
@@ -5215,10 +5230,10 @@
         <v>145</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>424</v>
@@ -5232,10 +5247,10 @@
         <v>146</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>427</v>
@@ -5249,10 +5264,10 @@
         <v>147</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>430</v>
@@ -5266,10 +5281,10 @@
         <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>433</v>
@@ -5283,10 +5298,10 @@
         <v>149</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>436</v>
@@ -5300,10 +5315,10 @@
         <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>439</v>
@@ -5317,10 +5332,10 @@
         <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>442</v>
@@ -5334,10 +5349,10 @@
         <v>152</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>445</v>
@@ -5351,10 +5366,10 @@
         <v>153</v>
       </c>
       <c r="C156" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>448</v>
@@ -5368,10 +5383,10 @@
         <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>451</v>
@@ -5385,10 +5400,10 @@
         <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>454</v>
@@ -5402,10 +5417,10 @@
         <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>457</v>
@@ -5419,10 +5434,10 @@
         <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>460</v>
@@ -5436,13 +5451,13 @@
         <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="H161">
         <v>158</v>
@@ -5452,14 +5467,14 @@
       <c r="B162" s="2">
         <v>159</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>466</v>
+      <c r="C162" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>702</v>
       </c>
       <c r="H162">
         <v>174</v>
@@ -5470,13 +5485,13 @@
         <v>160</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H163">
         <v>175</v>
@@ -5487,13 +5502,13 @@
         <v>161</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H164">
         <v>176</v>
@@ -5504,13 +5519,13 @@
         <v>162</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H165">
         <v>177</v>
@@ -5521,13 +5536,13 @@
         <v>163</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H166">
         <v>178</v>
@@ -5538,13 +5553,13 @@
         <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H167">
         <v>179</v>
@@ -5555,13 +5570,13 @@
         <v>165</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H168">
         <v>180</v>
@@ -5572,13 +5587,13 @@
         <v>166</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H169">
         <v>181</v>
@@ -5589,13 +5604,13 @@
         <v>167</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H170">
         <v>182</v>
@@ -5606,13 +5621,13 @@
         <v>168</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H171">
         <v>183</v>
@@ -5623,13 +5638,13 @@
         <v>169</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H172">
         <v>184</v>
@@ -5640,13 +5655,13 @@
         <v>170</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H173">
         <v>185</v>
@@ -5657,13 +5672,13 @@
         <v>171</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>412</v>
+        <v>497</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H174">
         <v>186</v>
@@ -5674,13 +5689,13 @@
         <v>172</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H175">
         <v>187</v>
@@ -5691,13 +5706,13 @@
         <v>173</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H176">
         <v>188</v>
@@ -5708,13 +5723,13 @@
         <v>174</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H177">
         <v>189</v>
@@ -5725,13 +5740,13 @@
         <v>175</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>278</v>
+        <v>508</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H178">
         <v>190</v>
@@ -5742,13 +5757,13 @@
         <v>176</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>513</v>
+        <v>278</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H179">
         <v>191</v>
@@ -5759,13 +5774,13 @@
         <v>177</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H180">
         <v>192</v>
@@ -5776,13 +5791,13 @@
         <v>178</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H181">
         <v>193</v>
@@ -5793,13 +5808,13 @@
         <v>179</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H182">
         <v>194</v>
@@ -5810,13 +5825,13 @@
         <v>180</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H183">
         <v>195</v>
@@ -5827,13 +5842,13 @@
         <v>181</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H184">
         <v>196</v>
@@ -5844,13 +5859,13 @@
         <v>182</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H185">
         <v>197</v>
@@ -5861,13 +5876,13 @@
         <v>183</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H186">
         <v>198</v>
@@ -5878,13 +5893,13 @@
         <v>184</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H187">
         <v>199</v>
@@ -5895,13 +5910,13 @@
         <v>185</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H188">
         <v>200</v>
@@ -5912,13 +5927,13 @@
         <v>186</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
@@ -5926,13 +5941,13 @@
         <v>187</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -5940,13 +5955,13 @@
         <v>188</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
@@ -5954,13 +5969,13 @@
         <v>189</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
@@ -5968,13 +5983,13 @@
         <v>190</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
@@ -5982,13 +5997,13 @@
         <v>191</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
@@ -5996,13 +6011,13 @@
         <v>192</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
@@ -6010,13 +6025,13 @@
         <v>193</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
@@ -6024,13 +6039,13 @@
         <v>194</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
@@ -6038,13 +6053,13 @@
         <v>195</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
@@ -6052,13 +6067,13 @@
         <v>196</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
@@ -6066,13 +6081,13 @@
         <v>197</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
@@ -6080,13 +6095,13 @@
         <v>198</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
@@ -6094,13 +6109,13 @@
         <v>199</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
@@ -6108,13 +6123,13 @@
         <v>200</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
@@ -6122,13 +6137,13 @@
         <v>201</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
@@ -6136,13 +6151,13 @@
         <v>202</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
@@ -6150,13 +6165,13 @@
         <v>203</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
@@ -6164,13 +6179,13 @@
         <v>204</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
@@ -6178,13 +6193,13 @@
         <v>205</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
@@ -6192,13 +6207,13 @@
         <v>206</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
@@ -6206,13 +6221,13 @@
         <v>207</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
@@ -6220,13 +6235,13 @@
         <v>208</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
@@ -6234,13 +6249,13 @@
         <v>209</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
@@ -6248,26 +6263,35 @@
         <v>210</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>536</v>
-      </c>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C162" r:id="rId1" xr:uid="{ED11582D-767E-46E1-8B75-C7DF37592197}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="4">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6276,64 +6300,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E153A5-9975-41A3-A561-B00AE17A9AB4}">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="O2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F3" t="s">
         <v>619</v>
       </c>
-      <c r="C3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>620</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>621</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
+        <v>605</v>
+      </c>
+      <c r="K3" t="s">
         <v>622</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>623</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>624</v>
       </c>
-      <c r="J3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K3" t="s">
-        <v>625</v>
-      </c>
-      <c r="L3" t="s">
-        <v>626</v>
-      </c>
-      <c r="M3" t="s">
-        <v>627</v>
-      </c>
       <c r="O3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -6341,12 +6366,12 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D4" s="7">
+        <v>625</v>
+      </c>
+      <c r="D4" s="6">
         <v>43686</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>43691</v>
       </c>
       <c r="F4">
@@ -6365,13 +6390,13 @@
         <v>122</v>
       </c>
       <c r="L4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -6379,19 +6404,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>631</v>
-      </c>
-      <c r="D5" s="7">
+        <v>628</v>
+      </c>
+      <c r="D5" s="6">
         <v>43476</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>43485</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -6400,16 +6425,16 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M5" t="s">
+        <v>626</v>
+      </c>
+      <c r="O5" t="s">
         <v>629</v>
-      </c>
-      <c r="O5" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -6417,19 +6442,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D6" s="7">
+        <v>630</v>
+      </c>
+      <c r="D6" s="6">
         <v>43543</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>43548</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -6438,16 +6463,16 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -6455,19 +6480,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>635</v>
-      </c>
-      <c r="D7" s="7">
+        <v>632</v>
+      </c>
+      <c r="D7" s="6">
         <v>42908</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>42911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -6476,16 +6501,16 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -6493,12 +6518,12 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>637</v>
-      </c>
-      <c r="D8" s="7">
+        <v>634</v>
+      </c>
+      <c r="D8" s="6">
         <v>42884</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>42900</v>
       </c>
       <c r="F8">
@@ -6514,16 +6539,16 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M8" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -6531,12 +6556,12 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D9" s="7">
+        <v>636</v>
+      </c>
+      <c r="D9" s="6">
         <v>43204</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>43218</v>
       </c>
       <c r="F9">
@@ -6555,13 +6580,13 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -6569,12 +6594,12 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>641</v>
-      </c>
-      <c r="D10" s="7">
+        <v>638</v>
+      </c>
+      <c r="D10" s="6">
         <v>43575</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>43583</v>
       </c>
       <c r="F10">
@@ -6593,13 +6618,13 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -6607,12 +6632,12 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>643</v>
-      </c>
-      <c r="D11" s="7">
+        <v>640</v>
+      </c>
+      <c r="D11" s="6">
         <v>43626</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>43646</v>
       </c>
       <c r="F11">
@@ -6631,13 +6656,13 @@
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -6645,12 +6670,12 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>645</v>
-      </c>
-      <c r="D12" s="7">
+        <v>642</v>
+      </c>
+      <c r="D12" s="6">
         <v>43174</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>43185</v>
       </c>
       <c r="F12">
@@ -6669,13 +6694,13 @@
         <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -6683,12 +6708,12 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>647</v>
-      </c>
-      <c r="D13" s="7">
+        <v>644</v>
+      </c>
+      <c r="D13" s="6">
         <v>43026</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>43037</v>
       </c>
       <c r="F13">
@@ -6707,13 +6732,13 @@
         <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O13" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -6721,12 +6746,12 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>649</v>
-      </c>
-      <c r="D14" s="7">
+        <v>646</v>
+      </c>
+      <c r="D14" s="6">
         <v>43405</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>43410</v>
       </c>
       <c r="F14">
@@ -6745,13 +6770,13 @@
         <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -6759,12 +6784,12 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>651</v>
-      </c>
-      <c r="D15" s="7">
+        <v>648</v>
+      </c>
+      <c r="D15" s="6">
         <v>43323</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>43328</v>
       </c>
       <c r="F15">
@@ -6783,13 +6808,13 @@
         <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M15" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O15" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -6797,12 +6822,12 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>653</v>
-      </c>
-      <c r="D16" s="7">
+        <v>650</v>
+      </c>
+      <c r="D16" s="6">
         <v>43500</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>43505</v>
       </c>
       <c r="F16">
@@ -6821,13 +6846,13 @@
         <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -6835,12 +6860,12 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>655</v>
-      </c>
-      <c r="D17" s="7">
+        <v>652</v>
+      </c>
+      <c r="D17" s="6">
         <v>43818</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>43827</v>
       </c>
       <c r="F17">
@@ -6859,13 +6884,13 @@
         <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M17" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O17" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -6873,12 +6898,12 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>657</v>
-      </c>
-      <c r="D18" s="7">
+        <v>654</v>
+      </c>
+      <c r="D18" s="6">
         <v>42878</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>42886</v>
       </c>
       <c r="F18">
@@ -6897,13 +6922,13 @@
         <v>135</v>
       </c>
       <c r="L18" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M18" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O18" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -6911,12 +6936,12 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>659</v>
-      </c>
-      <c r="D19" s="7">
+        <v>656</v>
+      </c>
+      <c r="D19" s="6">
         <v>43614</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>43617</v>
       </c>
       <c r="F19">
@@ -6935,13 +6960,13 @@
         <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M19" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O19" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -6949,12 +6974,12 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D20" s="7">
+        <v>658</v>
+      </c>
+      <c r="D20" s="6">
         <v>43463</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>43465</v>
       </c>
       <c r="F20">
@@ -6973,13 +6998,13 @@
         <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O20" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -6987,12 +7012,12 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
-      </c>
-      <c r="D21" s="7">
+        <v>660</v>
+      </c>
+      <c r="D21" s="6">
         <v>43415</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>43425</v>
       </c>
       <c r="F21">
@@ -7011,13 +7036,13 @@
         <v>139</v>
       </c>
       <c r="L21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -7025,12 +7050,12 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>665</v>
-      </c>
-      <c r="D22" s="7">
+        <v>662</v>
+      </c>
+      <c r="D22" s="6">
         <v>42910</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>42917</v>
       </c>
       <c r="F22">
@@ -7049,10 +7074,10 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M22" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -7060,12 +7085,12 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>666</v>
-      </c>
-      <c r="D23" s="7">
+        <v>663</v>
+      </c>
+      <c r="D23" s="6">
         <v>43687</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>43698</v>
       </c>
       <c r="F23">
@@ -7084,21 +7109,21 @@
         <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="M23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -7110,8 +7135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6934A91-5234-4652-9D71-52552C3ACFD7}">
   <dimension ref="B3:M20"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7127,45 +7152,45 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G4" t="s">
+        <v>673</v>
+      </c>
+      <c r="H4" t="s">
+        <v>674</v>
+      </c>
+      <c r="J4" t="s">
+        <v>622</v>
+      </c>
+      <c r="K4" t="s">
+        <v>673</v>
+      </c>
+      <c r="L4" t="s">
         <v>675</v>
       </c>
-      <c r="E4" t="s">
-        <v>625</v>
-      </c>
-      <c r="F4" t="s">
-        <v>675</v>
-      </c>
-      <c r="G4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H4" t="s">
-        <v>677</v>
-      </c>
-      <c r="J4" t="s">
-        <v>625</v>
-      </c>
-      <c r="K4" t="s">
-        <v>676</v>
-      </c>
-      <c r="L4" t="s">
-        <v>678</v>
-      </c>
       <c r="M4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -7176,27 +7201,27 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
-        <v>632</v>
-      </c>
-      <c r="L5" s="7">
+        <v>629</v>
+      </c>
+      <c r="L5" s="6">
         <v>43609</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>43621</v>
       </c>
     </row>
@@ -7214,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -7223,12 +7248,12 @@
         <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>634</v>
-      </c>
-      <c r="L6" s="7">
+        <v>631</v>
+      </c>
+      <c r="L6" s="6">
         <v>43102</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>43119</v>
       </c>
     </row>
@@ -7246,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -7255,12 +7280,12 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L7" s="7">
+        <v>633</v>
+      </c>
+      <c r="L7" s="6">
         <v>43585</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>43591</v>
       </c>
     </row>
@@ -7278,7 +7303,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -7287,12 +7312,12 @@
         <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>638</v>
-      </c>
-      <c r="L8" s="7">
+        <v>635</v>
+      </c>
+      <c r="L8" s="6">
         <v>43041</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>43050</v>
       </c>
     </row>
@@ -7310,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -7319,12 +7344,12 @@
         <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>640</v>
-      </c>
-      <c r="L9" s="7">
+        <v>637</v>
+      </c>
+      <c r="L9" s="6">
         <v>42740</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>42755</v>
       </c>
     </row>
@@ -7342,7 +7367,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -7351,12 +7376,12 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>642</v>
-      </c>
-      <c r="L10" s="7">
+        <v>639</v>
+      </c>
+      <c r="L10" s="6">
         <v>42809</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>42826</v>
       </c>
     </row>
@@ -7374,7 +7399,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -7383,12 +7408,12 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>644</v>
-      </c>
-      <c r="L11" s="7">
+        <v>641</v>
+      </c>
+      <c r="L11" s="6">
         <v>43000</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>43013</v>
       </c>
     </row>
@@ -7406,7 +7431,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -7415,12 +7440,12 @@
         <v>158</v>
       </c>
       <c r="K12" t="s">
-        <v>646</v>
-      </c>
-      <c r="L12" s="7">
+        <v>643</v>
+      </c>
+      <c r="L12" s="6">
         <v>43469</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>43480</v>
       </c>
     </row>
@@ -7432,7 +7457,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -7441,12 +7466,12 @@
         <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>648</v>
-      </c>
-      <c r="L13" s="7">
+        <v>645</v>
+      </c>
+      <c r="L13" s="6">
         <v>43580</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>43583</v>
       </c>
     </row>
@@ -7458,7 +7483,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -7467,12 +7492,12 @@
         <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>650</v>
-      </c>
-      <c r="L14" s="7">
+        <v>647</v>
+      </c>
+      <c r="L14" s="6">
         <v>42827</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>42840</v>
       </c>
     </row>
@@ -7484,7 +7509,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -7493,12 +7518,12 @@
         <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>652</v>
-      </c>
-      <c r="L15" s="7">
+        <v>649</v>
+      </c>
+      <c r="L15" s="6">
         <v>43773</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>43783</v>
       </c>
     </row>
@@ -7510,7 +7535,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -7519,12 +7544,12 @@
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>654</v>
-      </c>
-      <c r="L16" s="7">
+        <v>651</v>
+      </c>
+      <c r="L16" s="6">
         <v>43798</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>43803</v>
       </c>
     </row>
@@ -7536,7 +7561,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -7545,12 +7570,12 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>656</v>
-      </c>
-      <c r="L17" s="7">
+        <v>653</v>
+      </c>
+      <c r="L17" s="6">
         <v>43100</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>43102</v>
       </c>
     </row>
@@ -7562,7 +7587,7 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H18">
         <v>9</v>
@@ -7571,12 +7596,12 @@
         <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>658</v>
-      </c>
-      <c r="L18" s="7">
+        <v>655</v>
+      </c>
+      <c r="L18" s="6">
         <v>43179</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>43190</v>
       </c>
     </row>
@@ -7588,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H19">
         <v>8</v>
@@ -7597,12 +7622,12 @@
         <v>128</v>
       </c>
       <c r="K19" t="s">
-        <v>660</v>
-      </c>
-      <c r="L19" s="7">
+        <v>657</v>
+      </c>
+      <c r="L19" s="6">
         <v>43749</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>43769</v>
       </c>
     </row>
@@ -7614,7 +7639,7 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -7623,12 +7648,12 @@
         <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>662</v>
-      </c>
-      <c r="L20" s="7">
+        <v>659</v>
+      </c>
+      <c r="L20" s="6">
         <v>43460</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>43464</v>
       </c>
     </row>
@@ -7641,8 +7666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF9C72A-0538-4D6F-A2FF-7D4967F670A7}">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="D1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N17" sqref="J4:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7660,48 +7685,48 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H3" t="s">
+        <v>680</v>
+      </c>
+      <c r="J3" t="s">
+        <v>605</v>
+      </c>
+      <c r="K3" t="s">
+        <v>679</v>
+      </c>
+      <c r="L3" t="s">
+        <v>672</v>
+      </c>
+      <c r="M3" t="s">
+        <v>681</v>
+      </c>
+      <c r="N3" t="s">
         <v>682</v>
-      </c>
-      <c r="C3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D3" t="s">
-        <v>683</v>
-      </c>
-      <c r="F3" t="s">
-        <v>682</v>
-      </c>
-      <c r="G3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H3" t="s">
-        <v>683</v>
-      </c>
-      <c r="J3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K3" t="s">
-        <v>682</v>
-      </c>
-      <c r="L3" t="s">
-        <v>675</v>
-      </c>
-      <c r="M3" t="s">
-        <v>684</v>
-      </c>
-      <c r="N3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -7718,7 +7743,7 @@
         <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H4">
         <v>12410</v>
@@ -7733,7 +7758,8 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <f>'Participants @Events'!E5</f>
+        <v>122</v>
       </c>
       <c r="N4">
         <v>1370</v>
@@ -7744,7 +7770,7 @@
         <v>203</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>7531</v>
@@ -7753,7 +7779,7 @@
         <v>208</v>
       </c>
       <c r="G5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H5">
         <v>85666</v>
@@ -7768,7 +7794,8 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <f>'Participants @Events'!E6</f>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>2834</v>
@@ -7779,7 +7806,7 @@
         <v>207</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>63000</v>
@@ -7788,7 +7815,7 @@
         <v>206</v>
       </c>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H6">
         <v>26893</v>
@@ -7803,7 +7830,8 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <f>'Participants @Events'!E7</f>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>9154</v>
@@ -7823,7 +7851,7 @@
         <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H7">
         <v>48152</v>
@@ -7838,7 +7866,8 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>145</v>
+        <f>'Participants @Events'!E8</f>
+        <v>126</v>
       </c>
       <c r="N7">
         <v>3385</v>
@@ -7858,7 +7887,7 @@
         <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H8">
         <v>66771</v>
@@ -7873,7 +7902,8 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <f>'Participants @Events'!E9</f>
+        <v>73</v>
       </c>
       <c r="N8">
         <v>7426</v>
@@ -7893,7 +7923,7 @@
         <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H9">
         <v>31622</v>
@@ -7908,7 +7938,8 @@
         <v>6</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <f>'Participants @Events'!E10</f>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>6286</v>
@@ -7928,7 +7959,7 @@
         <v>202</v>
       </c>
       <c r="G10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H10">
         <v>42558</v>
@@ -7943,7 +7974,8 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>61</v>
+        <f>'Participants @Events'!E11</f>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>2592</v>
@@ -7963,7 +7995,7 @@
         <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H11">
         <v>48851</v>
@@ -7978,7 +8010,8 @@
         <v>8</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <f>'Participants @Events'!E12</f>
+        <v>158</v>
       </c>
       <c r="N11">
         <v>2893</v>
@@ -7998,7 +8031,7 @@
         <v>203</v>
       </c>
       <c r="G12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H12">
         <v>42563</v>
@@ -8013,7 +8046,8 @@
         <v>9</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <f>'Participants @Events'!E13</f>
+        <v>148</v>
       </c>
       <c r="N12">
         <v>6973</v>
@@ -8033,7 +8067,7 @@
         <v>202</v>
       </c>
       <c r="G13" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H13">
         <v>29160</v>
@@ -8048,7 +8082,8 @@
         <v>10</v>
       </c>
       <c r="M13">
-        <v>60</v>
+        <f>'Participants @Events'!E14</f>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>2096</v>
@@ -8068,7 +8103,7 @@
         <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H14">
         <v>10765</v>
@@ -8083,7 +8118,8 @@
         <v>11</v>
       </c>
       <c r="M14">
-        <v>150</v>
+        <f>'Participants @Events'!E15</f>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>4188</v>
@@ -8103,7 +8139,7 @@
         <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H15">
         <v>57220</v>
@@ -8118,7 +8154,8 @@
         <v>12</v>
       </c>
       <c r="M15">
-        <v>57</v>
+        <f>'Participants @Events'!E16</f>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>4930</v>
@@ -8138,7 +8175,7 @@
         <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H16">
         <v>4314</v>
@@ -8153,7 +8190,8 @@
         <v>13</v>
       </c>
       <c r="M16">
-        <v>81</v>
+        <f>'Participants @Events'!E17</f>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>6145</v>
@@ -8173,7 +8211,7 @@
         <v>203</v>
       </c>
       <c r="G17" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H17">
         <v>29526</v>
@@ -8188,7 +8226,8 @@
         <v>14</v>
       </c>
       <c r="M17">
-        <v>69</v>
+        <f>'Participants @Events'!E18</f>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>7247</v>
@@ -8204,52 +8243,60 @@
   <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N27:N28"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F4" t="s">
         <v>688</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>622</v>
+      </c>
+      <c r="I4" t="s">
+        <v>672</v>
+      </c>
+      <c r="J4" t="s">
         <v>689</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>690</v>
       </c>
-      <c r="E4" t="s">
-        <v>675</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>691</v>
       </c>
-      <c r="H4" t="s">
-        <v>625</v>
-      </c>
-      <c r="I4" t="s">
-        <v>675</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>692</v>
-      </c>
-      <c r="K4" t="s">
-        <v>693</v>
-      </c>
-      <c r="L4" t="s">
-        <v>694</v>
-      </c>
-      <c r="M4" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -8257,10 +8304,10 @@
         <v>43733</v>
       </c>
       <c r="C5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -8278,13 +8325,13 @@
         <v>43733</v>
       </c>
       <c r="K5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="L5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -8292,10 +8339,10 @@
         <v>43024</v>
       </c>
       <c r="C6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -8313,13 +8360,13 @@
         <v>43024</v>
       </c>
       <c r="K6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -8327,10 +8374,10 @@
         <v>43078</v>
       </c>
       <c r="C7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -8348,13 +8395,13 @@
         <v>43078</v>
       </c>
       <c r="K7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="L7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -8362,10 +8409,10 @@
         <v>42909</v>
       </c>
       <c r="C8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -8383,13 +8430,13 @@
         <v>42909</v>
       </c>
       <c r="K8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M8" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -8397,10 +8444,10 @@
         <v>43737</v>
       </c>
       <c r="C9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -8418,13 +8465,13 @@
         <v>43737</v>
       </c>
       <c r="K9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L9" t="s">
+        <v>694</v>
+      </c>
+      <c r="M9" t="s">
         <v>697</v>
-      </c>
-      <c r="M9" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -8432,10 +8479,10 @@
         <v>43692</v>
       </c>
       <c r="C10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -8453,13 +8500,13 @@
         <v>43692</v>
       </c>
       <c r="K10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="L10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -8467,10 +8514,10 @@
         <v>42896</v>
       </c>
       <c r="C11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -8488,13 +8535,13 @@
         <v>42896</v>
       </c>
       <c r="K11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -8502,10 +8549,10 @@
         <v>43177</v>
       </c>
       <c r="C12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -8523,13 +8570,13 @@
         <v>43177</v>
       </c>
       <c r="K12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="L12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M12" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -8537,10 +8584,10 @@
         <v>43165</v>
       </c>
       <c r="C13" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D13" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -8558,13 +8605,13 @@
         <v>43165</v>
       </c>
       <c r="K13" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L13" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M13" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -8572,10 +8619,10 @@
         <v>43109</v>
       </c>
       <c r="C14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -8593,13 +8640,13 @@
         <v>43109</v>
       </c>
       <c r="K14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="L14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M14" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -8607,10 +8654,10 @@
         <v>43687</v>
       </c>
       <c r="C15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -8628,13 +8675,13 @@
         <v>43687</v>
       </c>
       <c r="K15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="L15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -8642,10 +8689,10 @@
         <v>43534</v>
       </c>
       <c r="C16" t="s">
+        <v>693</v>
+      </c>
+      <c r="D16" t="s">
         <v>696</v>
-      </c>
-      <c r="D16" t="s">
-        <v>699</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -8663,13 +8710,13 @@
         <v>43534</v>
       </c>
       <c r="K16" t="s">
+        <v>693</v>
+      </c>
+      <c r="L16" t="s">
         <v>696</v>
       </c>
-      <c r="L16" t="s">
-        <v>699</v>
-      </c>
       <c r="M16" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -8677,10 +8724,10 @@
         <v>43155</v>
       </c>
       <c r="C17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -8698,13 +8745,13 @@
         <v>43155</v>
       </c>
       <c r="K17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -8712,10 +8759,10 @@
         <v>43706</v>
       </c>
       <c r="C18" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D18" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -8733,13 +8780,13 @@
         <v>43706</v>
       </c>
       <c r="K18" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L18" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M18" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -8747,10 +8794,10 @@
         <v>43692</v>
       </c>
       <c r="C19" t="s">
+        <v>693</v>
+      </c>
+      <c r="D19" t="s">
         <v>696</v>
-      </c>
-      <c r="D19" t="s">
-        <v>699</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -8768,13 +8815,13 @@
         <v>43692</v>
       </c>
       <c r="K19" t="s">
+        <v>693</v>
+      </c>
+      <c r="L19" t="s">
         <v>696</v>
       </c>
-      <c r="L19" t="s">
-        <v>699</v>
-      </c>
       <c r="M19" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -8782,10 +8829,10 @@
         <v>43404</v>
       </c>
       <c r="C20" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -8803,13 +8850,13 @@
         <v>43404</v>
       </c>
       <c r="K20" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M20" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/YACM-Dataset.xlsx
+++ b/Dataset/YACM-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\UA\BD\Project\BD-YACM\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98328C04-0C5D-4E09-AE91-BA0E65B4A4D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E930C5-B564-4E74-8E66-6B7A984C67F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{67B48889-A8C9-4163-B416-5FF4F8CF7936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{67B48889-A8C9-4163-B416-5FF4F8CF7936}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Participants @Events" sheetId="3" r:id="rId3"/>
     <sheet name="Sponsorhips and Prizes" sheetId="4" r:id="rId4"/>
     <sheet name="Stages" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="712">
   <si>
     <t>Nicholas Mason</t>
   </si>
@@ -2144,6 +2145,33 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>DOCUMENT</t>
+  </si>
+  <si>
+    <t>OTHERFILE</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>MyPath1</t>
+  </si>
+  <si>
+    <t>MyPath2</t>
+  </si>
+  <si>
+    <t>TEXTFILE</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -2169,6 +2197,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2254,11 +2283,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
@@ -2662,12 +2691,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="1"/>
       <c r="G2" s="5" t="s">
         <v>612</v>
@@ -2683,7 +2712,7 @@
       <c r="B3" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>607</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5467,13 +5496,13 @@
       <c r="B162" s="2">
         <v>159</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="7" t="s">
         <v>702</v>
       </c>
       <c r="H162">
@@ -8242,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D17882-7E2B-47E5-8D21-7E0595521524}">
   <dimension ref="B3:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8300,7 +8329,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="6">
         <v>43733</v>
       </c>
       <c r="C5" t="s">
@@ -8316,12 +8345,13 @@
         <v>3983</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <f>'Participants @Events'!E5</f>
+        <v>122</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>43733</v>
       </c>
       <c r="K5" t="s">
@@ -8335,7 +8365,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="6">
         <v>43024</v>
       </c>
       <c r="C6" t="s">
@@ -8351,12 +8381,13 @@
         <v>5906</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <f>'Participants @Events'!E6</f>
+        <v>47</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>43024</v>
       </c>
       <c r="K6" t="s">
@@ -8370,7 +8401,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="6">
         <v>43078</v>
       </c>
       <c r="C7" t="s">
@@ -8386,12 +8417,13 @@
         <v>6331</v>
       </c>
       <c r="H7">
-        <v>131</v>
+        <f>'Participants @Events'!E7</f>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>43078</v>
       </c>
       <c r="K7" t="s">
@@ -8405,7 +8437,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="6">
         <v>42909</v>
       </c>
       <c r="C8" t="s">
@@ -8421,12 +8453,13 @@
         <v>126</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <f>'Participants @Events'!E8</f>
+        <v>126</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>42909</v>
       </c>
       <c r="K8" t="s">
@@ -8440,7 +8473,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="6">
         <v>43737</v>
       </c>
       <c r="C9" t="s">
@@ -8456,12 +8489,13 @@
         <v>1490</v>
       </c>
       <c r="H9">
-        <v>95</v>
+        <f>'Participants @Events'!E9</f>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>43737</v>
       </c>
       <c r="K9" t="s">
@@ -8475,7 +8509,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="6">
         <v>43692</v>
       </c>
       <c r="C10" t="s">
@@ -8491,12 +8525,13 @@
         <v>2620</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <f>'Participants @Events'!E10</f>
+        <v>52</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>43692</v>
       </c>
       <c r="K10" t="s">
@@ -8510,7 +8545,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="6">
         <v>42896</v>
       </c>
       <c r="C11" t="s">
@@ -8526,12 +8561,13 @@
         <v>2424</v>
       </c>
       <c r="H11">
-        <v>91</v>
+        <f>'Participants @Events'!E11</f>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>42896</v>
       </c>
       <c r="K11" t="s">
@@ -8545,7 +8581,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="6">
         <v>43177</v>
       </c>
       <c r="C12" t="s">
@@ -8561,12 +8597,13 @@
         <v>5894</v>
       </c>
       <c r="H12">
-        <v>156</v>
+        <f>'Participants @Events'!E12</f>
+        <v>158</v>
       </c>
       <c r="I12">
         <v>8</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>43177</v>
       </c>
       <c r="K12" t="s">
@@ -8580,7 +8617,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="6">
         <v>43165</v>
       </c>
       <c r="C13" t="s">
@@ -8596,12 +8633,13 @@
         <v>4290</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <f>'Participants @Events'!E13</f>
+        <v>148</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>43165</v>
       </c>
       <c r="K13" t="s">
@@ -8615,7 +8653,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="6">
         <v>43109</v>
       </c>
       <c r="C14" t="s">
@@ -8631,12 +8669,13 @@
         <v>660</v>
       </c>
       <c r="H14">
-        <v>149</v>
+        <f>'Participants @Events'!E14</f>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>43109</v>
       </c>
       <c r="K14" t="s">
@@ -8650,7 +8689,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="6">
         <v>43687</v>
       </c>
       <c r="C15" t="s">
@@ -8666,12 +8705,13 @@
         <v>6446</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <f>'Participants @Events'!E15</f>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>11</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>43687</v>
       </c>
       <c r="K15" t="s">
@@ -8685,7 +8725,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="6">
         <v>43534</v>
       </c>
       <c r="C16" t="s">
@@ -8701,12 +8741,13 @@
         <v>664</v>
       </c>
       <c r="H16">
-        <v>129</v>
+        <f>'Participants @Events'!E16</f>
+        <v>87</v>
       </c>
       <c r="I16">
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>43534</v>
       </c>
       <c r="K16" t="s">
@@ -8720,7 +8761,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="6">
         <v>43155</v>
       </c>
       <c r="C17" t="s">
@@ -8736,12 +8777,13 @@
         <v>4330</v>
       </c>
       <c r="H17">
-        <v>66</v>
+        <f>'Participants @Events'!E17</f>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>13</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>43155</v>
       </c>
       <c r="K17" t="s">
@@ -8755,7 +8797,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="6">
         <v>43706</v>
       </c>
       <c r="C18" t="s">
@@ -8771,12 +8813,13 @@
         <v>669</v>
       </c>
       <c r="H18">
-        <v>102</v>
+        <f>'Participants @Events'!E18</f>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>14</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>43706</v>
       </c>
       <c r="K18" t="s">
@@ -8790,7 +8833,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="6">
         <v>43692</v>
       </c>
       <c r="C19" t="s">
@@ -8806,12 +8849,13 @@
         <v>6722</v>
       </c>
       <c r="H19">
-        <v>96</v>
+        <f>'Participants @Events'!E19</f>
+        <v>128</v>
       </c>
       <c r="I19">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>43692</v>
       </c>
       <c r="K19" t="s">
@@ -8825,7 +8869,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="6">
         <v>43404</v>
       </c>
       <c r="C20" t="s">
@@ -8841,12 +8885,13 @@
         <v>3137</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <f>'Participants @Events'!E20</f>
+        <v>27</v>
       </c>
       <c r="I20">
         <v>16</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>43404</v>
       </c>
       <c r="K20" t="s">
@@ -8857,6 +8902,108 @@
       </c>
       <c r="M20" t="s">
         <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4943BD2-34E8-4344-A992-7ECCD800397B}">
+  <dimension ref="B3:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F3" t="s">
+        <v>704</v>
+      </c>
+      <c r="I3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" t="s">
+        <v>705</v>
+      </c>
+      <c r="I4" t="s">
+        <v>605</v>
+      </c>
+      <c r="J4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>706</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>707</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
